--- a/src/main/resources/importPartyUserInfosExcelExample.xlsx
+++ b/src/main/resources/importPartyUserInfosExcelExample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>聘任时长（年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织信息（填写在系统注册的组织编号和职责编号，请认真确认）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在组织编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在组织职责编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,6 +278,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -615,10 +633,12 @@
     <col min="37" max="37" width="13.375" style="2" customWidth="1"/>
     <col min="38" max="38" width="13.75" style="2" customWidth="1"/>
     <col min="39" max="39" width="27.5" style="2" customWidth="1"/>
-    <col min="40" max="16384" width="9" style="2"/>
+    <col min="40" max="40" width="33.75" style="2" customWidth="1"/>
+    <col min="41" max="41" width="31" style="2" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:41" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -657,7 +677,7 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="4"/>
     </row>
-    <row r="2" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:41" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -700,8 +720,12 @@
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
+      <c r="AN2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO2" s="7"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -819,12 +843,19 @@
       <c r="AM3" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AN3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="U2:AL2"/>
+    <mergeCell ref="AN2:AO2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">

--- a/src/main/resources/importPartyUserInfosExcelExample.xlsx
+++ b/src/main/resources/importPartyUserInfosExcelExample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,10 @@
   </si>
   <si>
     <t>所在组织职责编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入组织时间（缺省为当前时间）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,6 +277,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="24"/>
     </xf>
@@ -281,9 +288,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -635,97 +639,99 @@
     <col min="39" max="39" width="27.5" style="2" customWidth="1"/>
     <col min="40" max="40" width="33.75" style="2" customWidth="1"/>
     <col min="41" max="41" width="31" style="2" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="2"/>
+    <col min="42" max="42" width="31.875" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:42" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
     </row>
-    <row r="2" spans="1:41" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:42" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
       <c r="AN2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -848,6 +854,9 @@
       </c>
       <c r="AO3" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -855,14 +864,14 @@
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="U2:AL2"/>
-    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AN2:AP2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576 I1:I1048576 W1:W1048576 X1:X1048576 AA1:AA1048576">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576 I1:I1048576 W1:W1048576 X1:X1048576 AA1:AA1048576 AP1:AP1048576">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF1048576 AG3:AG1048576 AH3:AH1048576 AI3:AI1048576 AE3:AE1048576 AJ1:AJ1048576 AK1:AK1048576 AL1:AL1048576">

--- a/src/main/resources/importPartyUserInfosExcelExample.xlsx
+++ b/src/main/resources/importPartyUserInfosExcelExample.xlsx
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>积极党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列为发展党员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +193,10 @@
   </si>
   <si>
     <t>加入组织时间（缺省为当前时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极份子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AN18" sqref="AN18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,26 +614,26 @@
     <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.25" style="2" customWidth="1"/>
     <col min="15" max="16" width="41.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="14" style="2" customWidth="1"/>
-    <col min="20" max="20" width="14.5" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="9" style="2" customWidth="1"/>
-    <col min="23" max="23" width="20.875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="30.875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.75" style="2" customWidth="1"/>
-    <col min="27" max="27" width="26" style="1" customWidth="1"/>
-    <col min="28" max="28" width="20.875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="17.875" style="2" customWidth="1"/>
-    <col min="30" max="30" width="15" style="2" customWidth="1"/>
-    <col min="31" max="31" width="15.75" style="2" customWidth="1"/>
-    <col min="32" max="32" width="10.875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="12.25" style="2" customWidth="1"/>
-    <col min="34" max="34" width="13.375" style="2" customWidth="1"/>
-    <col min="35" max="35" width="13.25" style="2" customWidth="1"/>
-    <col min="36" max="36" width="10.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="14" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.5" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="9" style="2" customWidth="1"/>
+    <col min="24" max="24" width="20.875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="30.875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5" style="2" customWidth="1"/>
+    <col min="27" max="27" width="12.75" style="2" customWidth="1"/>
+    <col min="28" max="28" width="26" style="1" customWidth="1"/>
+    <col min="29" max="29" width="20.875" style="2" customWidth="1"/>
+    <col min="30" max="30" width="17.875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="15" style="2" customWidth="1"/>
+    <col min="32" max="32" width="15.75" style="2" customWidth="1"/>
+    <col min="33" max="33" width="10.875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="12.25" style="2" customWidth="1"/>
+    <col min="35" max="35" width="13.375" style="2" customWidth="1"/>
+    <col min="36" max="36" width="13.25" style="2" customWidth="1"/>
     <col min="37" max="37" width="13.375" style="2" customWidth="1"/>
     <col min="38" max="38" width="13.75" style="2" customWidth="1"/>
     <col min="39" max="39" width="27.5" style="2" customWidth="1"/>
@@ -681,6 +681,7 @@
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
     </row>
     <row r="2" spans="1:42" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -705,10 +706,10 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
@@ -726,7 +727,7 @@
       <c r="AK2" s="6"/>
       <c r="AL2" s="6"/>
       <c r="AN2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
@@ -781,89 +782,89 @@
         <v>21</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="AC3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AM3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="AN3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="U2:AL2"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="V2:AL2"/>
     <mergeCell ref="AN2:AP2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -871,31 +872,31 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576 I1:I1048576 W1:W1048576 X1:X1048576 AA1:AA1048576 AP1:AP1048576">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:J1048576 X1:Y1048576 AB1:AB1048576 AP1:AP1048576">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF1048576 AG3:AG1048576 AH3:AH1048576 AI3:AI1048576 AE3:AE1048576 AJ1:AJ1048576 AK1:AK1048576 AL1:AL1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AJ1048576 AK1:AL1048576 Q1:Q1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
       <formula1>"正式党员,预备党员"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"汉族,蒙古族,回族,藏族,维吾尔族,苗族,彝族,壮族,布依族,朝鲜族,满族,侗族,瑶族,白族,土家族,哈尼族,哈萨克族,傣族,黎族,僳僳族,佤族,畲族,高山族,拉祜族,水族,东乡族,纳西族,景颇族,柯尔克孜族,土族,达斡尔族,仫佬族,羌族,布朗族,撒拉族,毛南族,仡佬族,锡伯族,阿昌族,普米族,塔吉克族,怒族,乌孜别克族,俄罗斯族,鄂温克族,德昂族,保安族,裕固族,京族,塔塔尔族,独龙族,鄂伦春族,赫哲族,门巴族,珞巴族,基诺族,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
       <formula1>"已婚,未婚"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576">
       <formula1>"正常,停止党籍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
       <formula1>"公务员,参照公务员法管理的机关人员,公有企业管理人员,公有企业技术人员,公有事业工作人员,非公企业管理,非公企业技术人员,民办非管理,民办非技术,公有经济工勤,城镇户口个体,乡镇户口个体,农业生产,牧业生产,渔业生产,林业生产,军人,武警,学生,居委会社区干部,自由职业,未就业毕业生,未就业专业军人,下岗职工,其他岗位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD1048576">
       <formula1>"武警转入,本省转入,本市转入,本区（县）转入,新入党,恢复党籍,军队转入,内部支部间转移,其他系统转入"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
       <formula1>"农村生产一线,企业生产一线,教学第一线,科研第一线,其他第一线"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">

--- a/src/main/resources/importPartyUserInfosExcelExample.xlsx
+++ b/src/main/resources/importPartyUserInfosExcelExample.xlsx
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +279,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="24"/>
@@ -595,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,21 +617,21 @@
     <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.25" style="2" customWidth="1"/>
     <col min="15" max="16" width="41.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="14" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="10.5" style="2" customWidth="1"/>
-    <col min="23" max="23" width="9" style="2" customWidth="1"/>
-    <col min="24" max="24" width="20.875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="30.875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="16.5" style="2" customWidth="1"/>
-    <col min="27" max="27" width="12.75" style="2" customWidth="1"/>
-    <col min="28" max="28" width="26" style="1" customWidth="1"/>
-    <col min="29" max="29" width="20.875" style="2" customWidth="1"/>
-    <col min="30" max="30" width="17.875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="15" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14" style="2" customWidth="1"/>
+    <col min="20" max="20" width="14.5" style="2" customWidth="1"/>
+    <col min="21" max="21" width="16.5" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15" style="2" customWidth="1"/>
+    <col min="26" max="26" width="10.25" style="2" customWidth="1"/>
+    <col min="27" max="27" width="10.5" style="2" customWidth="1"/>
+    <col min="28" max="28" width="9" style="2" customWidth="1"/>
+    <col min="29" max="29" width="20.875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="17.875" style="2" customWidth="1"/>
     <col min="32" max="32" width="15.75" style="2" customWidth="1"/>
     <col min="33" max="33" width="10.875" style="2" customWidth="1"/>
     <col min="34" max="34" width="12.25" style="2" customWidth="1"/>
@@ -644,93 +647,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
     </row>
     <row r="2" spans="1:42" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AN2" s="7" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AN2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -782,49 +785,49 @@
         <v>21</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>6</v>
@@ -863,8 +866,8 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="V2:AL2"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="AA2:AL2"/>
     <mergeCell ref="AN2:AP2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -872,31 +875,31 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:J1048576 X1:Y1048576 AB1:AB1048576 AP1:AP1048576">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:J1048576 AC1:AD1048576 AP1:AP1048576 W1:W1048576">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AJ1048576 AK1:AL1048576 Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AJ1048576 AK1:AL1048576 Z1:Z1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
       <formula1>"正式党员,预备党员"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"汉族,蒙古族,回族,藏族,维吾尔族,苗族,彝族,壮族,布依族,朝鲜族,满族,侗族,瑶族,白族,土家族,哈尼族,哈萨克族,傣族,黎族,僳僳族,佤族,畲族,高山族,拉祜族,水族,东乡族,纳西族,景颇族,柯尔克孜族,土族,达斡尔族,仫佬族,羌族,布朗族,撒拉族,毛南族,仡佬族,锡伯族,阿昌族,普米族,塔吉克族,怒族,乌孜别克族,俄罗斯族,鄂温克族,德昂族,保安族,裕固族,京族,塔塔尔族,独龙族,鄂伦春族,赫哲族,门巴族,珞巴族,基诺族,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
       <formula1>"已婚,未婚"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576">
       <formula1>"正常,停止党籍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
       <formula1>"公务员,参照公务员法管理的机关人员,公有企业管理人员,公有企业技术人员,公有事业工作人员,非公企业管理,非公企业技术人员,民办非管理,民办非技术,公有经济工勤,城镇户口个体,乡镇户口个体,农业生产,牧业生产,渔业生产,林业生产,军人,武警,学生,居委会社区干部,自由职业,未就业毕业生,未就业专业军人,下岗职工,其他岗位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
       <formula1>"武警转入,本省转入,本市转入,本区（县）转入,新入党,恢复党籍,军队转入,内部支部间转移,其他系统转入"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y1048576">
       <formula1>"农村生产一线,企业生产一线,教学第一线,科研第一线,其他第一线"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">

--- a/src/main/resources/importPartyUserInfosExcelExample.xlsx
+++ b/src/main/resources/importPartyUserInfosExcelExample.xlsx
@@ -72,14 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入学时间（yyyy-mm-dd）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业时间（yyyy-mm-dd）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>毕业学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,14 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入党时间（yyyy-mm-dd）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预备党员入党时间（yyyy-mm-dd）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参加工作时间（yyyy-mm-dd）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如何加入党支部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +177,26 @@
   </si>
   <si>
     <t>积极份子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学时间（yyyy/mm/dd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业时间（yyyy/mm-dd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加工作时间（yyyy/mm/dd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入党时间（yyyy/mm/dd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预备党员入党时间（yyyy/mm/dd）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,10 +278,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="24"/>
@@ -291,6 +291,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,7 +645,7 @@
     <col min="39" max="39" width="27.5" style="2" customWidth="1"/>
     <col min="40" max="40" width="33.75" style="2" customWidth="1"/>
     <col min="41" max="41" width="31" style="2" customWidth="1"/>
-    <col min="42" max="42" width="31.875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="31.875" style="2" customWidth="1"/>
     <col min="43" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -686,9 +689,9 @@
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
     </row>
-    <row r="2" spans="1:42" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:42" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -709,14 +712,14 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
       <c r="AA2" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
@@ -730,7 +733,7 @@
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
       <c r="AN2" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
@@ -761,73 +764,73 @@
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="U3" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AE3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>6</v>
@@ -845,22 +848,22 @@
         <v>10</v>
       </c>
       <c r="AK3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +878,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:J1048576 AC1:AD1048576 AP1:AP1048576 W1:W1048576">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP1:AP1048576">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AJ1048576 AK1:AL1048576 Z1:Z1048576">

--- a/src/main/resources/importPartyUserInfosExcelExample.xlsx
+++ b/src/main/resources/importPartyUserInfosExcelExample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,58 +36,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否党务工作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否党代表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否志愿者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否困难党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否先进党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>民族</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所学专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>家庭住址（xxx省-xxx市-xxx县（区）-xxxx）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,22 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文艺特长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业特长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婚姻状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子女状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,26 +80,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一线情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列为发展党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否失联党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>党员介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>聘任时长（年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>组织信息（填写在系统注册的组织编号和职责编号，请认真确认）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,14 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入学时间（yyyy/mm/dd）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业时间（yyyy/mm-dd）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参加工作时间（yyyy/mm/dd）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +113,14 @@
   </si>
   <si>
     <t>预备党员入党时间（yyyy/mm/dd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党费占收入比（百分比）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,6 +128,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,6 +211,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="24"/>
     </xf>
@@ -292,8 +223,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,146 +539,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.25" style="2" customWidth="1"/>
-    <col min="15" max="16" width="41.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="14" style="2" customWidth="1"/>
-    <col min="20" max="20" width="14.5" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.75" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="15" style="2" customWidth="1"/>
-    <col min="26" max="26" width="10.25" style="2" customWidth="1"/>
-    <col min="27" max="27" width="10.5" style="2" customWidth="1"/>
-    <col min="28" max="28" width="9" style="2" customWidth="1"/>
-    <col min="29" max="29" width="20.875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="17.875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="15.75" style="2" customWidth="1"/>
-    <col min="33" max="33" width="10.875" style="2" customWidth="1"/>
-    <col min="34" max="34" width="12.25" style="2" customWidth="1"/>
-    <col min="35" max="35" width="13.375" style="2" customWidth="1"/>
-    <col min="36" max="36" width="13.25" style="2" customWidth="1"/>
-    <col min="37" max="37" width="13.375" style="2" customWidth="1"/>
-    <col min="38" max="38" width="13.75" style="2" customWidth="1"/>
-    <col min="39" max="39" width="27.5" style="2" customWidth="1"/>
-    <col min="40" max="40" width="33.75" style="2" customWidth="1"/>
-    <col min="41" max="41" width="31" style="2" customWidth="1"/>
-    <col min="42" max="42" width="31.875" style="2" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="30.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="27.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="27.5" style="10" customWidth="1"/>
+    <col min="20" max="20" width="27.5" style="12" customWidth="1"/>
+    <col min="21" max="21" width="33.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="31" style="2" customWidth="1"/>
+    <col min="23" max="23" width="31.875" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:42" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+    <row r="2" spans="1:23" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="9"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AN2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -746,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -755,161 +639,95 @@
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="S3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="U2:W2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="12">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP1:AP1048576">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AJ1048576 AK1:AL1048576 Z1:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"正式党员,预备党员"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"汉族,蒙古族,回族,藏族,维吾尔族,苗族,彝族,壮族,布依族,朝鲜族,满族,侗族,瑶族,白族,土家族,哈尼族,哈萨克族,傣族,黎族,僳僳族,佤族,畲族,高山族,拉祜族,水族,东乡族,纳西族,景颇族,柯尔克孜族,土族,达斡尔族,仫佬族,羌族,布朗族,撒拉族,毛南族,仡佬族,锡伯族,阿昌族,普米族,塔吉克族,怒族,乌孜别克族,俄罗斯族,鄂温克族,德昂族,保安族,裕固族,京族,塔塔尔族,独龙族,鄂伦春族,赫哲族,门巴族,珞巴族,基诺族,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
-      <formula1>"已婚,未婚"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
       <formula1>"正常,停止党籍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>"公务员,参照公务员法管理的机关人员,公有企业管理人员,公有企业技术人员,公有事业工作人员,非公企业管理,非公企业技术人员,民办非管理,民办非技术,公有经济工勤,城镇户口个体,乡镇户口个体,农业生产,牧业生产,渔业生产,林业生产,军人,武警,学生,居委会社区干部,自由职业,未就业毕业生,未就业专业军人,下岗职工,其他岗位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
       <formula1>"武警转入,本省转入,本市转入,本区（县）转入,新入党,恢复党籍,军队转入,内部支部间转移,其他系统转入"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y1048576">
-      <formula1>"农村生产一线,企业生产一线,教学第一线,科研第一线,其他第一线"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"大专以下,大专（等效）,大专,本科（等效）,本科,研究生,党校大学,党校研究生,博士生"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
-      <formula1>"学士学位,硕士学位,博士学位"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/importPartyUserInfosExcelExample.xlsx
+++ b/src/main/resources/importPartyUserInfosExcelExample.xlsx
@@ -4,41 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="党员信息" sheetId="1" r:id="rId1"/>
+    <sheet name="入党申请人" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党员信息表-导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>学历</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,14 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>党员类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党员状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,7 +49,176 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>党员介绍</t>
+    <t>所在组织编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在组织职责编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加工作时间（yyyy/mm/dd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入党时间（yyyy/mm/dd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党费占收入比（百分比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姓名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性别</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>民族</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>身份证号码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>党员类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>党员状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为预备党员时间（yyyy/mm/dd）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -88,39 +226,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所在组织编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在组织职责编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入组织时间（缺省为当前时间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积极份子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加工作时间（yyyy/mm/dd）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入党时间（yyyy/mm/dd）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预备党员入党时间（yyyy/mm/dd）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党费占收入比（百分比）</t>
+    <t>加入组织时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>党员信息导入  带</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>符号为必填项</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>入党申请人导入 带</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>符号为必填项</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入党基本阶段：入党积极分子-&gt;发展党员-&gt;预备党员-&gt;正式党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手机号码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手机号码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配组织编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>担任组织角色编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>流程是否通过</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入必读：如果该用户没有进行到党积极份子这一步骤，那么导入此用户后用户身份是普通用户，如果到积极分子这一步，那么会生成普通用户，同时会生成一条申请入党记录，申请进度会到积极份子那一步，发展党员等都一致，如果已经成为预备党员，要填写组织编号以及在此组织的角色编号；用户积极分子、发展党员、预备党员状态要和入党流程相互对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行流程（如果是没有申请入党的普通用户请填写“我是普通用户”）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>申请党委编号（如果是没有申请入党的普通用户请填写“我是普通用户”）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为积极分子时间（yyyy/mm/dd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为预备党员时间（yyyy/mm/dd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为发展对象时间（yyyy/mm/dd）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +449,7 @@
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +490,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,34 +540,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="24"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="24"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,16 +893,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="40.375" style="2" customWidth="1"/>
@@ -556,178 +910,342 @@
     <col min="9" max="9" width="9.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
     <col min="11" max="11" width="26" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="27.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="27.5" style="10" customWidth="1"/>
-    <col min="20" max="20" width="27.5" style="12" customWidth="1"/>
-    <col min="21" max="21" width="33.75" style="2" customWidth="1"/>
-    <col min="22" max="22" width="31" style="2" customWidth="1"/>
-    <col min="23" max="23" width="31.875" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="2"/>
+    <col min="12" max="12" width="10.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="7" customWidth="1"/>
+    <col min="18" max="18" width="27.5" style="9" customWidth="1"/>
+    <col min="19" max="19" width="33.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="31" style="2" customWidth="1"/>
+    <col min="21" max="21" width="31.875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
-      <formula1>"正式党员,预备党员"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"汉族,蒙古族,回族,藏族,维吾尔族,苗族,彝族,壮族,布依族,朝鲜族,满族,侗族,瑶族,白族,土家族,哈尼族,哈萨克族,傣族,黎族,僳僳族,佤族,畲族,高山族,拉祜族,水族,东乡族,纳西族,景颇族,柯尔克孜族,土族,达斡尔族,仫佬族,羌族,布朗族,撒拉族,毛南族,仡佬族,锡伯族,阿昌族,普米族,塔吉克族,怒族,乌孜别克族,俄罗斯族,鄂温克族,德昂族,保安族,裕固族,京族,塔塔尔族,独龙族,鄂伦春族,赫哲族,门巴族,珞巴族,基诺族,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"正常,停止党籍"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>"公务员,参照公务员法管理的机关人员,公有企业管理人员,公有企业技术人员,公有事业工作人员,非公企业管理,非公企业技术人员,民办非管理,民办非技术,公有经济工勤,城镇户口个体,乡镇户口个体,农业生产,牧业生产,渔业生产,林业生产,军人,武警,学生,居委会社区干部,自由职业,未就业毕业生,未就业专业军人,下岗职工,其他岗位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"武警转入,本省转入,本市转入,本区（县）转入,新入党,恢复党籍,军队转入,内部支部间转移,其他系统转入"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"大专以下,大专（等效）,大专,本科（等效）,本科,研究生,党校大学,党校研究生,博士生"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+      <formula1>"正式党员,预备党员"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="9" style="12"/>
+    <col min="4" max="4" width="13.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="40.625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="37.75" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9" style="12"/>
+    <col min="11" max="11" width="27.875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="66.625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="62.375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="32.75" style="13" customWidth="1"/>
+    <col min="16" max="16" width="32.125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="33.875" style="13" customWidth="1"/>
+    <col min="18" max="18" width="19.25" style="12" customWidth="1"/>
+    <col min="19" max="19" width="18.375" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>"大专以下,大专（等效）,大专,本科（等效）,本科,研究生,党校大学,党校研究生,博士生"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+      <formula1>"公务员,参照公务员法管理的机关人员,公有企业管理人员,公有企业技术人员,公有事业工作人员,非公企业管理,非公企业技术人员,民办非管理,民办非技术,公有经济工勤,城镇户口个体,乡镇户口个体,农业生产,牧业生产,渔业生产,林业生产,军人,武警,学生,居委会社区干部,自由职业,未就业毕业生,未就业专业军人,下岗职工,其他岗位"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"汉族,蒙古族,回族,藏族,维吾尔族,苗族,彝族,壮族,布依族,朝鲜族,满族,侗族,瑶族,白族,土家族,哈尼族,哈萨克族,傣族,黎族,僳僳族,佤族,畲族,高山族,拉祜族,水族,东乡族,纳西族,景颇族,柯尔克孜族,土族,达斡尔族,仫佬族,羌族,布朗族,撒拉族,毛南族,仡佬族,锡伯族,阿昌族,普米族,塔吉克族,怒族,乌孜别克族,俄罗斯族,鄂温克族,德昂族,保安族,裕固族,京族,塔塔尔族,独龙族,鄂伦春族,赫哲族,门巴族,珞巴族,基诺族,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+      <formula1>"是,待审核,我是普通用户"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
